--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.2708946666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.812684</v>
+      </c>
+      <c r="I2">
+        <v>0.1616296696421007</v>
+      </c>
+      <c r="J2">
+        <v>0.1616296696421007</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.071323</v>
-      </c>
-      <c r="H2">
-        <v>0.213969</v>
-      </c>
-      <c r="I2">
-        <v>0.0483071206658679</v>
-      </c>
-      <c r="J2">
-        <v>0.0483071206658679</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>46.25093466666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N2">
-        <v>138.752804</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9569015955251317</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P2">
-        <v>0.9569015955251318</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q2">
-        <v>3.298755413230666</v>
+        <v>0.002668222168444444</v>
       </c>
       <c r="R2">
-        <v>29.688798719076</v>
+        <v>0.024013999516</v>
       </c>
       <c r="S2">
-        <v>0.04622516084039406</v>
+        <v>3.255021636445697E-05</v>
       </c>
       <c r="T2">
-        <v>0.04622516084039406</v>
+        <v>3.255021636445697E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.066797333333334</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N3">
-        <v>6.200392000000001</v>
+        <v>138.752804</v>
       </c>
       <c r="O3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q3">
-        <v>0.1474101862053334</v>
+        <v>12.52913152954844</v>
       </c>
       <c r="R3">
-        <v>1.326691675848</v>
+        <v>112.762183765936</v>
       </c>
       <c r="S3">
-        <v>0.002065645588491982</v>
+        <v>0.1528455714702728</v>
       </c>
       <c r="T3">
-        <v>0.002065645588491982</v>
+        <v>0.1528455714702728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01632333333333333</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N4">
-        <v>0.04897</v>
+        <v>7.823689</v>
       </c>
       <c r="O4">
-        <v>0.0003377190931065126</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P4">
-        <v>0.0003377190931065127</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q4">
-        <v>0.001164229103333333</v>
+        <v>0.7064652079195555</v>
       </c>
       <c r="R4">
-        <v>0.01047806193</v>
+        <v>6.358186871276</v>
       </c>
       <c r="S4">
-        <v>1.631423698186378E-05</v>
+        <v>0.008618321084240479</v>
       </c>
       <c r="T4">
-        <v>1.631423698186379E-05</v>
+        <v>0.008618321084240481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.058121333333333</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H5">
-        <v>3.174364</v>
+        <v>0.812684</v>
       </c>
       <c r="I5">
-        <v>0.7166663618813337</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J5">
-        <v>0.7166663618813337</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.25093466666667</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N5">
-        <v>138.752804</v>
+        <v>0.120943</v>
       </c>
       <c r="O5">
-        <v>0.9569015955251317</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P5">
-        <v>0.9569015955251318</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q5">
-        <v>48.93910065740621</v>
+        <v>0.01092093789022222</v>
       </c>
       <c r="R5">
-        <v>440.451905916656</v>
+        <v>0.09828844101199999</v>
       </c>
       <c r="S5">
-        <v>0.6857791851434396</v>
+        <v>0.0001332268712229354</v>
       </c>
       <c r="T5">
-        <v>0.6857791851434397</v>
+        <v>0.0001332268712229354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,40 +791,40 @@
         <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.066797333333334</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N6">
-        <v>6.200392000000001</v>
+        <v>0.029549</v>
       </c>
       <c r="O6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q6">
-        <v>2.186922350076445</v>
+        <v>0.01042214242622222</v>
       </c>
       <c r="R6">
-        <v>19.682301150688</v>
+        <v>0.093799281836</v>
       </c>
       <c r="S6">
-        <v>0.03064514482409958</v>
+        <v>0.0001271419580298654</v>
       </c>
       <c r="T6">
-        <v>0.03064514482409958</v>
+        <v>0.0001271419580298653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,45 +853,45 @@
         <v>3.174364</v>
       </c>
       <c r="I7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01632333333333333</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N7">
-        <v>0.04897</v>
+        <v>138.752804</v>
       </c>
       <c r="O7">
-        <v>0.0003377190931065126</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P7">
-        <v>0.0003377190931065127</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q7">
-        <v>0.01727206723111111</v>
+        <v>48.93910065740623</v>
       </c>
       <c r="R7">
-        <v>0.15544860508</v>
+        <v>440.451905916656</v>
       </c>
       <c r="S7">
-        <v>0.0002420319137945078</v>
+        <v>0.5970186193337891</v>
       </c>
       <c r="T7">
-        <v>0.0002420319137945078</v>
+        <v>0.597018619333789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3470046666666667</v>
+        <v>1.058121333333333</v>
       </c>
       <c r="H8">
-        <v>1.041014</v>
+        <v>3.174364</v>
       </c>
       <c r="I8">
-        <v>0.2350265174527984</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J8">
-        <v>0.2350265174527984</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.25093466666667</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N8">
-        <v>138.752804</v>
+        <v>7.823689</v>
       </c>
       <c r="O8">
-        <v>0.9569015955251317</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P8">
-        <v>0.9569015955251318</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q8">
-        <v>16.04929016702845</v>
+        <v>2.759470745421778</v>
       </c>
       <c r="R8">
-        <v>144.443611503256</v>
+        <v>24.835236708796</v>
       </c>
       <c r="S8">
-        <v>0.224897249541298</v>
+        <v>0.03366337738930993</v>
       </c>
       <c r="T8">
-        <v>0.224897249541298</v>
+        <v>0.03366337738930993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3470046666666667</v>
+        <v>1.058121333333333</v>
       </c>
       <c r="H9">
-        <v>1.041014</v>
+        <v>3.174364</v>
       </c>
       <c r="I9">
-        <v>0.2350265174527984</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J9">
-        <v>0.2350265174527984</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.066797333333334</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N9">
-        <v>6.200392000000001</v>
+        <v>0.120943</v>
       </c>
       <c r="O9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q9">
-        <v>0.717188319720889</v>
+        <v>0.04265745613911111</v>
       </c>
       <c r="R9">
-        <v>6.454694877488001</v>
+        <v>0.383917105252</v>
       </c>
       <c r="S9">
-        <v>0.01004989496917027</v>
+        <v>0.0005203874862095505</v>
       </c>
       <c r="T9">
-        <v>0.01004989496917027</v>
+        <v>0.0005203874862095504</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,40 +1039,226 @@
         <v>1.041014</v>
       </c>
       <c r="I10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009849666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.029549</v>
+      </c>
+      <c r="O10">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="P10">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="Q10">
+        <v>0.003417880298444444</v>
+      </c>
+      <c r="R10">
+        <v>0.030760922686</v>
+      </c>
+      <c r="S10">
+        <v>4.169545719914359E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.169545719914359E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="F11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M10">
-        <v>0.01632333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.04897</v>
-      </c>
-      <c r="O10">
-        <v>0.0003377190931065126</v>
-      </c>
-      <c r="P10">
-        <v>0.0003377190931065127</v>
-      </c>
-      <c r="Q10">
-        <v>0.005664272842222222</v>
-      </c>
-      <c r="R10">
-        <v>0.05097845558000001</v>
-      </c>
-      <c r="S10">
-        <v>7.937294233014103E-05</v>
-      </c>
-      <c r="T10">
-        <v>7.937294233014104E-05</v>
+      <c r="G11">
+        <v>0.3470046666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.041014</v>
+      </c>
+      <c r="I11">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="J11">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N11">
+        <v>138.752804</v>
+      </c>
+      <c r="O11">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="P11">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="Q11">
+        <v>16.04929016702845</v>
+      </c>
+      <c r="R11">
+        <v>144.443611503256</v>
+      </c>
+      <c r="S11">
+        <v>0.1957887441349338</v>
+      </c>
+      <c r="T11">
+        <v>0.1957887441349338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3470046666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.041014</v>
+      </c>
+      <c r="I12">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="J12">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.607896333333333</v>
+      </c>
+      <c r="N12">
+        <v>7.823689</v>
+      </c>
+      <c r="O12">
+        <v>0.05332140505715427</v>
+      </c>
+      <c r="P12">
+        <v>0.05332140505715428</v>
+      </c>
+      <c r="Q12">
+        <v>0.9049521978495555</v>
+      </c>
+      <c r="R12">
+        <v>8.144569780646</v>
+      </c>
+      <c r="S12">
+        <v>0.01103970658360386</v>
+      </c>
+      <c r="T12">
+        <v>0.01103970658360386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3470046666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.041014</v>
+      </c>
+      <c r="I13">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="J13">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.120943</v>
+      </c>
+      <c r="O13">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="P13">
+        <v>0.0008242723722565415</v>
+      </c>
+      <c r="Q13">
+        <v>0.01398926180022222</v>
+      </c>
+      <c r="R13">
+        <v>0.125903356202</v>
+      </c>
+      <c r="S13">
+        <v>0.0001706580148240557</v>
+      </c>
+      <c r="T13">
+        <v>0.0001706580148240557</v>
       </c>
     </row>
   </sheetData>
